--- a/PP/PP_data/scenarios.xlsx
+++ b/PP/PP_data/scenarios.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lacoupe/Documents/bcv_project/BCVS/PP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lacoupe/Documents/bcv_project/BCVS/PP/PP_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB91AD2-657E-8242-9AE4-3CCF94A27B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FE8168-9138-9E41-87CA-2BCD6D6F34BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="scenarios2" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Citi 3-Month Switzerland Franc</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>SAA actuelle Equilibré CHF</t>
+  </si>
+  <si>
+    <t>Pondéré</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -450,6 +453,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -970,11 +977,295 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="15">
+        <v>-1.9500000000000012E-3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>-4.4499999999999991E-3</v>
+      </c>
+      <c r="D2" s="15">
+        <v>-5.6999999999999993E-3</v>
+      </c>
+      <c r="E2" s="16">
+        <v>-8.199999999999999E-3</v>
+      </c>
+      <c r="F2" s="39">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8">
+        <v>-6.6666666666666619E-3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-3.1666666666666662E-3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-6.6666666666666643E-4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4.3333333333333349E-3</v>
+      </c>
+      <c r="F3" s="39">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.34E-2</v>
+      </c>
+      <c r="F4" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3.95E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F5" s="39">
+        <v>3.9899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="F6" s="39">
+        <v>2.92E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.81E-2</v>
+      </c>
+      <c r="F7" s="39">
+        <v>4.4699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6.3210047575572567E-2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4.9420214019972854E-2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4.9420214019972854E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3.374840167133461E-2</v>
+      </c>
+      <c r="F8" s="39">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11">
+        <v>7.9303558041936784E-2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>6.2002782173073756E-2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>6.2002782173073756E-2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4.2340868792504427E-2</v>
+      </c>
+      <c r="F9" s="39">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14">
+        <v>5.2869038694624525E-2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4.1335188115382504E-2</v>
+      </c>
+      <c r="D10" s="15">
+        <v>4.1335188115382504E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>2.8227245861669619E-2</v>
+      </c>
+      <c r="F10" s="39">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1.9781894564358846E-2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1.5466298485574207E-2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.5466298485574207E-2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1.056172790852271E-2</v>
+      </c>
+      <c r="F11" s="39">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="18">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D12" s="18">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F12" s="39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11">
+        <v>-2.1316666666666668E-2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-6.6666666666677824E-5</v>
+      </c>
+      <c r="D13" s="11">
+        <v>-9.0000000000001071E-4</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1.4683333333333342E-2</v>
+      </c>
+      <c r="F13" s="39">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="B4:G16"/>
+      <selection activeCell="B8" sqref="B8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1074,7 +1365,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>3</v>
@@ -1094,7 +1385,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>4</v>
@@ -1251,6 +1542,9 @@
       <c r="G16" s="19">
         <v>2.4083333333333335E-2</v>
       </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
@@ -1492,18 +1786,6 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="I31:I33"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/PP/PP_data/scenarios.xlsx
+++ b/PP/PP_data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lacoupe/Documents/bcv_project/BCVS/PP/PP_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FE8168-9138-9E41-87CA-2BCD6D6F34BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC5FA88-87CD-0A49-932F-E3A558CE5FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>Citi 3-Month Switzerland Franc</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Pondéré</t>
+  </si>
+  <si>
+    <t>XAU Curncy</t>
   </si>
 </sst>
 </file>
@@ -981,7 +984,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B13" s="11">
         <v>-2.1316666666666668E-2</v>
@@ -1265,7 +1268,7 @@
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1626,10 +1629,10 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="9">
         <v>1.4999999999999999E-2</v>
@@ -1642,10 +1645,10 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="9">
         <v>1.4999999999999999E-2</v>
